--- a/Gráfico_de_Dispersão(FG).xlsx
+++ b/Gráfico_de_Dispersão(FG).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T-Gamer\Documents\Desenvolvimento 2022\Python com Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D76C36-B5CA-486D-A333-B313AB0FF256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8539F01D-7A84-41F1-9E98-89DE71B2704B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AD2AD1B6-765F-4264-B12F-D7C6C7F00919}"/>
+    <workbookView xWindow="8265" yWindow="1470" windowWidth="12225" windowHeight="9090" xr2:uid="{AD2AD1B6-765F-4264-B12F-D7C6C7F00919}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>F(gf)</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>Desvio Padrão l</t>
+  </si>
+  <si>
+    <t>covariancia</t>
   </si>
 </sst>
 </file>
@@ -145,7 +148,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -169,6 +172,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1446,10 +1452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ED60B17-C8D0-4FF9-B1A0-ABD750F38893}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1459,7 +1465,7 @@
     <col min="5" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1472,8 +1478,11 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="9" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>3</v>
       </c>
@@ -1488,8 +1497,12 @@
         <f>AVERAGE(B2:B8)</f>
         <v>35.085714285714282</v>
       </c>
+      <c r="E2">
+        <f>_xlfn.COVARIANCE.S(A2:A8,B2:B8)</f>
+        <v>218.47857142857143</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>4</v>
       </c>
@@ -1503,7 +1516,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>5</v>
       </c>
@@ -1519,7 +1532,7 @@
         <v>25.530532607803057</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>10</v>
       </c>
@@ -1528,7 +1541,7 @@
       </c>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>15</v>
       </c>
@@ -1537,7 +1550,7 @@
       </c>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>20</v>
       </c>
@@ -1546,7 +1559,7 @@
       </c>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>25</v>
       </c>
@@ -1555,19 +1568,19 @@
       </c>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>

--- a/Gráfico_de_Dispersão(FG).xlsx
+++ b/Gráfico_de_Dispersão(FG).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T-Gamer\Documents\Desenvolvimento 2022\Python com Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8539F01D-7A84-41F1-9E98-89DE71B2704B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{470BDB3A-1B63-4721-B170-FD2F9B8799F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8265" yWindow="1470" windowWidth="12225" windowHeight="9090" xr2:uid="{AD2AD1B6-765F-4264-B12F-D7C6C7F00919}"/>
+    <workbookView xWindow="2340" yWindow="1830" windowWidth="17970" windowHeight="9090" xr2:uid="{AD2AD1B6-765F-4264-B12F-D7C6C7F00919}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -20,18 +20,19 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>F(gf)</t>
-  </si>
-  <si>
-    <t>l(mm)</t>
-  </si>
   <si>
     <t>Media F (gf)</t>
   </si>
@@ -46,6 +47,12 @@
   </si>
   <si>
     <t>covariancia</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
 </sst>
 </file>
@@ -1455,7 +1462,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1467,19 +1474,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="E1" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1510,10 +1517,10 @@
         <v>12.2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
